--- a/Usage By Department.xlsx
+++ b/Usage By Department.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E6ADFA-061B-4F4A-86EA-77368B7320A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7677C90C-8918-4628-AC10-46308F8A4BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{C30BDE43-420A-4C2C-9EB0-55B569ED4773}"/>
   </bookViews>
@@ -25,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
-  <si>
-    <t>Title Name</t>
-  </si>
-  <si>
-    <t>Chargeback</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Mohd Niyaz Ullah</t>
-  </si>
-  <si>
-    <t>Normal Flow:</t>
-  </si>
-  <si>
-    <t>Usage By Department</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -60,9 +39,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
     <t>TC_01</t>
   </si>
   <si>
@@ -75,9 +51,6 @@
     <t>The total spending amount displayed should be "$43,000."</t>
   </si>
   <si>
-    <t xml:space="preserve"> The total spending amount displayed is "$43,000."</t>
-  </si>
-  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -90,9 +63,6 @@
     <t>The Donut Chart should be segmented into four colored sections: Compute, Storage, Network, and Others.</t>
   </si>
   <si>
-    <t>The Donut Chart is segmented into four colored sections as expected.</t>
-  </si>
-  <si>
     <t>TC_03</t>
   </si>
   <si>
@@ -105,9 +75,6 @@
     <t>The Compute category should represent 20% of the total spending.</t>
   </si>
   <si>
-    <t>Compute category represents 20%.</t>
-  </si>
-  <si>
     <t>TC_04</t>
   </si>
   <si>
@@ -120,9 +87,6 @@
     <t>The Storage category should represent 15% of the total spending.</t>
   </si>
   <si>
-    <t>Storage category represents 15%.</t>
-  </si>
-  <si>
     <t>TC_05</t>
   </si>
   <si>
@@ -135,9 +99,6 @@
     <t>The Network category should represent 15% of the total spending.</t>
   </si>
   <si>
-    <t>Network category represents 15%.</t>
-  </si>
-  <si>
     <t>TC_06</t>
   </si>
   <si>
@@ -150,46 +111,88 @@
     <t>The Others category should represent 25% of the total spending.</t>
   </si>
   <si>
-    <t>Others category represents 25%.</t>
-  </si>
-  <si>
-    <t>Alternate Flow :</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>The system should display an appropriate error message indicating the data retrieval failure.</t>
-  </si>
-  <si>
-    <t>The system should display an appropriate error message indicating the rendering failure.</t>
-  </si>
-  <si>
-    <t>1. Log in with a user account that lacks permissions to access the Donut Chart.</t>
-  </si>
-  <si>
-    <t>The system should deny access and display an "Access Denied" message.</t>
-  </si>
-  <si>
-    <t>2. Navigate to the dashboard containing the Donut Chart widget.</t>
-  </si>
-  <si>
-    <t>The system should gracefully handle the unexpected data format and display an error message.</t>
-  </si>
-  <si>
-    <t>The system should handle the network timeout gracefully and display an appropriate error message.</t>
-  </si>
-  <si>
-    <t>1. Attempt to load the Donut Chart.                                                                     2. Simulate a network delay or timeout during data retrieval.</t>
-  </si>
-  <si>
-    <t>1. Ensure data retrieval is successful but provide data in an unexpected format.                                                        2. Load the Donut Chart with this unexpected data.</t>
-  </si>
-  <si>
-    <t>1. Ensure data retrieval is successful.                                                                     2. Introduce a simulated error in the rendering process.</t>
-  </si>
-  <si>
-    <t>1. Attempt to load the Donut Chart.                                                                                2. Introduce a simulated error in the data retrieval process.</t>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Usage By Department(Normal Flow)</t>
+  </si>
+  <si>
+    <t>System encounters errors in data retrieval or rendering.</t>
+  </si>
+  <si>
+    <t>System attempts to retrieve or render data but encounters errors.</t>
+  </si>
+  <si>
+    <t>An appropriate error message is displayed indicating the nature of the issue, such as "Data Retrieval Error" or "Rendering Error."</t>
+  </si>
+  <si>
+    <t>User receives the error message.</t>
+  </si>
+  <si>
+    <t>User observes the error message displayed by the system.</t>
+  </si>
+  <si>
+    <t>The error message is clearly visible to the user, providing information about the encountered issue.</t>
+  </si>
+  <si>
+    <t>User attempts to troubleshoot the issue based on the error message.</t>
+  </si>
+  <si>
+    <t>User follows any troubleshooting steps provided in the error message.</t>
+  </si>
+  <si>
+    <t>If troubleshooting steps are provided, the user attempts to resolve the issue accordingly.</t>
+  </si>
+  <si>
+    <t>If troubleshooting steps are successful, the system resumes normal operation.</t>
+  </si>
+  <si>
+    <t>User successfully resolves the issue following the provided troubleshooting steps.</t>
+  </si>
+  <si>
+    <t>The system resumes normal operation, and the user can continue using the application without further errors.</t>
+  </si>
+  <si>
+    <t>If troubleshooting steps are not successful, user contacts support for assistance.</t>
+  </si>
+  <si>
+    <t>User is unable to resolve the issue with the provided troubleshooting steps.</t>
+  </si>
+  <si>
+    <t>The user contacts support for assistance in resolving the encountered issue.</t>
+  </si>
+  <si>
+    <t>Support provides assistance to resolve the issue.</t>
+  </si>
+  <si>
+    <t>User contacts support, and support team provides assistance.</t>
+  </si>
+  <si>
+    <t>Support team resolves the issue, ensuring proper data retrieval and rendering functionality.</t>
+  </si>
+  <si>
+    <t>If the user has insufficient permissions, an access denied message is displayed.</t>
+  </si>
+  <si>
+    <t>User attempts to access a feature or data without sufficient permissions.</t>
+  </si>
+  <si>
+    <t>An "Access Denied" message is displayed, indicating that the user does not have the necessary permissions to perform the requested action.</t>
+  </si>
+  <si>
+    <t>User receives the access denied message.</t>
+  </si>
+  <si>
+    <t>User observes the access denied message displayed by the system.</t>
+  </si>
+  <si>
+    <t>The access denied message clearly informs the user about the insufficient permissions issue.</t>
+  </si>
+  <si>
+    <t>Usage By Department(Alternative Flow)</t>
   </si>
 </sst>
 </file>
@@ -265,21 +268,6 @@
       <left style="medium">
         <color rgb="FFE3E3E3"/>
       </left>
-      <right style="medium">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE3E3E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -300,18 +288,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -321,30 +315,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,280 +654,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7962CD8A-12E9-49AB-90DA-1ADE7C68930D}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="80.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>